--- a/EntitySheet.xlsx
+++ b/EntitySheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="27630" windowHeight="11100" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="Energy" sheetId="10" r:id="rId9"/>
     <sheet name="Force" sheetId="11" r:id="rId10"/>
     <sheet name="Frequency" sheetId="12" r:id="rId11"/>
+    <sheet name="Fuel Consumption" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <oleSize ref="A1:T35"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="194">
   <si>
     <t>ID</t>
   </si>
@@ -587,6 +589,30 @@
   </si>
   <si>
     <t>Ton Force</t>
+  </si>
+  <si>
+    <t>Gallons (UK)/100 Miles</t>
+  </si>
+  <si>
+    <t>Gallons (US)/100 Miles</t>
+  </si>
+  <si>
+    <t>Kilometer/Litre</t>
+  </si>
+  <si>
+    <t>Liter/100 Kilometers</t>
+  </si>
+  <si>
+    <t>Liter/100 Miles</t>
+  </si>
+  <si>
+    <t>Miles/Gallon (UK)</t>
+  </si>
+  <si>
+    <t>Miles/Gallon (US)</t>
+  </si>
+  <si>
+    <t>Miles/Liter</t>
   </si>
 </sst>
 </file>
@@ -915,7 +941,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1334,14 +1360,14 @@
         <v>180</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C14" si="0">1/D3</f>
+        <f t="shared" ref="C3:C8" si="0">1/D3</f>
         <v>9.8066520482173476E-3</v>
       </c>
       <c r="D3" s="2">
         <v>101.9716</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" ref="E3:E14" si="1">"{ id : "&amp;A3&amp;", label : '"&amp;B3&amp;"', unitToCentral : "&amp;C3&amp;", centralToUnit : "&amp;D3&amp;"},"</f>
+        <f t="shared" ref="E3:E8" si="1">"{ id : "&amp;A3&amp;", label : '"&amp;B3&amp;"', unitToCentral : "&amp;C3&amp;", centralToUnit : "&amp;D3&amp;"},"</f>
         <v>{ id : 2, label : 'Gram Force', unitToCentral : 0.00980665204821735, centralToUnit : 101.9716},</v>
       </c>
     </row>
@@ -1577,7 +1603,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,6 +1889,178 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="93.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="2">
+        <v>35.400599999999997</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>"{ id : "&amp;A2&amp;", label : '"&amp;B2&amp;"', unitToCentral : "&amp;C2&amp;", centralToUnit : "&amp;D2&amp;"},"</f>
+        <v>{ id : 1, label : 'Gallons (UK)/100 Miles', unitToCentral : 35.4006, centralToUnit : 100000},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42.514400000000002</v>
+      </c>
+      <c r="D3" s="2">
+        <v>101.9716</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f t="shared" ref="E3:E8" si="0">"{ id : "&amp;A3&amp;", label : '"&amp;B3&amp;"', unitToCentral : "&amp;C3&amp;", centralToUnit : "&amp;D3&amp;"},"</f>
+        <v>{ id : 2, label : 'Gallons (US)/100 Miles', unitToCentral : 42.5144, centralToUnit : 101.9716},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{ id : 3, label : 'Kilometer/Litre', unitToCentral : 1, centralToUnit : 1},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="2">
+        <v>100</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{ id : 5, label : 'Liter/100 Kilometers', unitToCentral : 100, centralToUnit : 1},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ref="C3:C8" si="1">1/D6</f>
+        <v>4.4483985765124556</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.2248</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{ id : 6, label : 'Liter/100 Miles', unitToCentral : 4.44839857651246, centralToUnit : 0.2248},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13825521913452232</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.2329999999999997</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{ id : 7, label : 'Miles/Gallon (UK)', unitToCentral : 0.138255219134522, centralToUnit : 7.233},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{ id : 8, label : 'Miles/Gallon (US)', unitToCentral : 10000, centralToUnit : 0.0001},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1937,7 +2135,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" ref="E3:E9" si="1">"{ id : "&amp;A3&amp;", label : '"&amp;B3&amp;"', unitToCentral : "&amp;C3&amp;", centralToUnit : "&amp;D3&amp;"},"</f>
+        <f t="shared" ref="E3:E8" si="1">"{ id : "&amp;A3&amp;", label : '"&amp;B3&amp;"', unitToCentral : "&amp;C3&amp;", centralToUnit : "&amp;D3&amp;"},"</f>
         <v>{ id : 2, label : 'Galileo', unitToCentral : 0.01, centralToUnit : 100},</v>
       </c>
     </row>
@@ -3267,7 +3465,7 @@
         <v>124</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C19" si="0">1/D3</f>
+        <f t="shared" ref="C3:C18" si="0">1/D3</f>
         <v>1E-3</v>
       </c>
       <c r="D3">
@@ -3687,7 +3885,7 @@
         <v>6.68458712E-12</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" ref="E3:E31" si="1">"{ id : "&amp;A3&amp;", label : '"&amp;B3&amp;"', unitToCentral : "&amp;C3&amp;", centralToUnit : "&amp;D3&amp;"},"</f>
+        <f t="shared" ref="E3:E30" si="1">"{ id : "&amp;A3&amp;", label : '"&amp;B3&amp;"', unitToCentral : "&amp;C3&amp;", centralToUnit : "&amp;D3&amp;"},"</f>
         <v>{ id : 2, label : 'Astronomical Unit', unitToCentral : 149597870750.767, centralToUnit : 6.68458712E-12},</v>
       </c>
     </row>
